--- a/modules_schedules/Y1B2425_Introduction_to_Anatomy.xlsx
+++ b/modules_schedules/Y1B2425_Introduction_to_Anatomy.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
